--- a/tests/correspondances_variables.xlsx
+++ b/tests/correspondances_variables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="705" windowWidth="14430" windowHeight="12135" activeTab="8"/>
+    <workbookView xWindow="14385" yWindow="765" windowWidth="14430" windowHeight="12075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="7" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="3015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="3015">
   <si>
     <t>id_indiv</t>
   </si>
@@ -10002,10 +10002,10 @@
   <dimension ref="A1:L523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B442" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A462" sqref="A462"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15446,8 +15446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA362"/>
   <sheetViews>
-    <sheetView topLeftCell="B311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G351" sqref="G351"/>
+    <sheetView tabSelected="1" topLeftCell="B98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17249,16 +17249,28 @@
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+      <c r="B112" s="19">
+        <v>1</v>
+      </c>
+      <c r="C112" s="19" t="s">
         <v>640</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="N112" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+      <c r="B113" s="19">
+        <v>1</v>
+      </c>
+      <c r="C113" s="19" t="s">
         <v>642</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="N113" t="s">
         <v>643</v>
@@ -17387,16 +17399,28 @@
       </c>
     </row>
     <row r="127" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+      <c r="B127" s="19">
+        <v>1</v>
+      </c>
+      <c r="C127" s="19" t="s">
         <v>671</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>264</v>
       </c>
       <c r="N127" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+      <c r="B128" s="19">
+        <v>1</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>672</v>
+      </c>
+      <c r="D128" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="N128" t="s">
         <v>673</v>
@@ -18609,7 +18633,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="257" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C257" t="s">
         <v>958</v>
       </c>
@@ -18617,7 +18641,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="258" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C258" t="s">
         <v>960</v>
       </c>
@@ -18625,23 +18649,35 @@
         <v>961</v>
       </c>
     </row>
-    <row r="259" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C259" t="s">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B259" s="19">
+        <v>1</v>
+      </c>
+      <c r="C259" s="19" t="s">
         <v>962</v>
+      </c>
+      <c r="D259" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="N259" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="260" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C260" t="s">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B260" s="19">
+        <v>1</v>
+      </c>
+      <c r="C260" s="19" t="s">
         <v>964</v>
+      </c>
+      <c r="D260" s="19" t="s">
+        <v>369</v>
       </c>
       <c r="N260" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="261" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C261" t="s">
         <v>966</v>
       </c>
@@ -18649,7 +18685,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="262" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C262" t="s">
         <v>968</v>
       </c>
@@ -18657,7 +18693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="263" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C263" t="s">
         <v>969</v>
       </c>
@@ -18665,7 +18701,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="264" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C264" t="s">
         <v>971</v>
       </c>
@@ -18673,7 +18709,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="265" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C265" t="s">
         <v>973</v>
       </c>
@@ -18681,7 +18717,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="266" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C266" t="s">
         <v>975</v>
       </c>
@@ -18689,7 +18725,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="267" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C267" t="s">
         <v>977</v>
       </c>
@@ -18697,7 +18733,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="268" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>979</v>
       </c>
@@ -18705,7 +18741,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="269" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>981</v>
       </c>
@@ -18713,7 +18749,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="270" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C270" t="s">
         <v>983</v>
       </c>
@@ -18721,7 +18757,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="271" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C271" t="s">
         <v>985</v>
       </c>
@@ -18729,7 +18765,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="272" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C272" t="s">
         <v>987</v>
       </c>
@@ -26413,7 +26449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
